--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Quản lý tài khoản" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -359,7 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -15,17 +15,207 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>TestCase</t>
+  </si>
+  <si>
+    <t>Module Code(Mã Module)</t>
+  </si>
+  <si>
+    <t>Test requirement(Yêu cầu test)</t>
+  </si>
+  <si>
+    <t>Tester(Người thực hiện kiểm thử)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Untested(Chưa được Test)</t>
+  </si>
+  <si>
+    <t>N/A(Không xác định)</t>
+  </si>
+  <si>
+    <t>Number of Test cases (Số lượng TestCase)</t>
+  </si>
+  <si>
+    <t>ID (Mã chức năng)</t>
+  </si>
+  <si>
+    <t>Test Title</t>
+  </si>
+  <si>
+    <t>Test Case Description(Mô tả trường hợp)</t>
+  </si>
+  <si>
+    <t>Test Case Procedure(Thủ tục thực hiện hay có thể dùng là Test Case Steps - Các bước thực hiện)</t>
+  </si>
+  <si>
+    <t>Test Data (Dữ Liệu Truyền Vào Test)</t>
+  </si>
+  <si>
+    <t>Expected Output(Kết quả mong muốn)</t>
+  </si>
+  <si>
+    <t>Actual Result(Kết quả thực tế)</t>
+  </si>
+  <si>
+    <t>Inter-test case Dependence (Những Test case liên quan để có thể thực  hiện được test case này)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Test date (Ngày thực hiện)</t>
+  </si>
+  <si>
+    <t>Note (Ghi Chú)</t>
+  </si>
+  <si>
+    <t>Pass orr Fail</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trình duyệt truy cập vào link "https://www.facebook.com/"
+Bước 2: +Bấm F12 để có thể thông số mã nguồn để kiểm tra thông số</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng màu và đúng kích thước như mong muốn</t>
+  </si>
+  <si>
+    <t>Check GUI - Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C02.1</t>
+  </si>
+  <si>
+    <t>C02.2</t>
+  </si>
+  <si>
+    <t>C02.3</t>
+  </si>
+  <si>
+    <t>C02.4</t>
+  </si>
+  <si>
+    <t>C02.5</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trình duyệt truy cập vào link 
+Bước 2: +Bấm F12 để có thể thông số mã nguồn để kiểm tra thông số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dựa vào hình ảnh 
+ +Label tiêu đề: 'Quản lý tài khoản'. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label:"Quản lý tài khoản" -Font:18px Mã màu:FFFFFF, Font Style:Arial
+</t>
+  </si>
+  <si>
+    <t>Chưa có hiển thị Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +Background color:FF69B4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text Field Tìm kiếm:
+Fontsize: 16px - color: white (FFFFFF) - font style: Arial</t>
+  </si>
+  <si>
+    <t>Text Field:"Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Button :"Search" 
+-Fontsize: 14px - color: white(#FFFFFF) - font style: Arial - button size: 10px 24px - button color: #008080</t>
+  </si>
+  <si>
+    <t>Button "Search"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button:"Thêm mới "
+-Fontsize: 14px - color: white(#FFFFFF) - font style: Arial - button size: 10px 24px - button color: #008080                    </t>
+  </si>
+  <si>
+    <t>Button:"Thêm mới"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Table:Đủ tất cả các trường :'ID','Tài khoản','Họ và tên','Email','Ngày đăng ký','Update','Delete'.
+Kích thước bảng:50x50cm</t>
+  </si>
+  <si>
+    <t>Hiển thị đủ các field và đúng kích thước bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table hiển thị</t>
+  </si>
+  <si>
+    <t>Chưa hiển thị TextFeild</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background </t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>Vũ Hoài Phương</t>
+  </si>
+  <si>
+    <t>Quản lý  người dùng</t>
+  </si>
+  <si>
+    <t>Test toàn bộ chức năng màn hình  Quản lý người dùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +223,156 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -50,15 +380,541 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="1"/>
+    <cellStyle name="Normal_Sheet1 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,9 +1217,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,14 +1230,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="O2" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="O3" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="A5" s="19">
+        <f>COUNTIF(I11:I994,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <f>COUNTIF(I11:I994,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f>G5-E5-B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21">
+        <f>COUNTIF(I$12:I$995,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23">
+        <f>COUNTA(A11:A994)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="141.5" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:15" ht="119" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:15" ht="57" customHeight="1">
+      <c r="A10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:15" ht="103.5" customHeight="1">
+      <c r="A11" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:15" ht="75">
+      <c r="A12" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:15" ht="62.5">
+      <c r="A13" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:15" ht="50">
+      <c r="A14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="48">
+        <v>44036</v>
+      </c>
+      <c r="K14" s="49"/>
+    </row>
+  </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef name="Pass"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="9">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7 I10:I14 H9:I9">
+      <formula1>$O$2:$O$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -391,7 +1629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Quản lý tài khoản" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Nhung" sheetId="1" r:id="rId1"/>
+    <sheet name="Phương" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -736,6 +736,132 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -743,12 +869,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,15 +892,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -795,117 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1233,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1256,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="2"/>
@@ -1273,19 +1273,19 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1293,75 +1293,75 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="19">
+      <c r="A5" s="9">
         <f>COUNTIF(I11:I994,"Pass")</f>
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="10">
         <f>COUNTIF(I11:I994,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="58">
         <f>G5-E5-B5-A5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21">
+      <c r="D5" s="59"/>
+      <c r="E5" s="58">
         <f>COUNTIF(I$12:I$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60">
         <f>COUNTA(A11:A994)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="O5" t="s">
@@ -1369,231 +1369,231 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="141.5" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="119" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="31">
         <v>44036</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="57" customHeight="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="31">
         <v>44036</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="103.5" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="31">
         <v>44036</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="75">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="31">
         <v>44036</v>
       </c>
-      <c r="K12" s="49"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:15" ht="62.5">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="31">
         <v>44036</v>
       </c>
-      <c r="K13" s="49"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="50">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="31">
         <v>44036</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="32"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -1627,7 +1627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>

--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nhung" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -841,19 +835,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,6 +894,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1233,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1273,19 +1267,19 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1293,19 +1287,19 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1316,24 +1310,24 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1346,22 +1340,22 @@
         <f>COUNTIF(I11:I994,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="56">
         <f>G5-E5-B5-A5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58">
+      <c r="D5" s="57"/>
+      <c r="E5" s="56">
         <f>COUNTIF(I$12:I$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60">
+      <c r="F5" s="57"/>
+      <c r="G5" s="58">
         <f>COUNTA(A11:A994)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="O5" t="s">
@@ -1418,10 +1412,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
@@ -1434,7 +1428,7 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="119" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="26"/>
@@ -1453,7 +1447,7 @@
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="31">
         <v>44036</v>
@@ -1461,7 +1455,7 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="57" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="26"/>
@@ -1480,7 +1474,7 @@
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="31">
         <v>44036</v>
@@ -1619,7 +1613,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1627,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>TestCase</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>Pass orr Fail</t>
-  </si>
-  <si>
-    <t>Bước 1: Mở trình duyệt truy cập vào link "https://www.facebook.com/"
-Bước 2: +Bấm F12 để có thể thông số mã nguồn để kiểm tra thông số</t>
   </si>
   <si>
     <t>Hiển thị đúng màu và đúng kích thước như mong muốn</t>
@@ -209,6 +205,23 @@
   </si>
   <si>
     <t>Test toàn bộ chức năng màn hình  Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Check Function - Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Check table hiển thị đầy đủ các thông tin tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Check Table</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trình duyệt truy cập vào link ""
+Bước 2: Đăng nhập vào tài khỏa của Admin
+Bước 3:Click vào button :"Quản lý người tài khoản"</t>
   </si>
 </sst>
 </file>
@@ -713,7 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -844,6 +857,12 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -895,11 +914,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1225,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1251,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1267,16 +1283,16 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="O2" s="41" t="s">
@@ -1287,16 +1303,16 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="O3" s="42" t="s">
@@ -1310,25 +1326,25 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
       <c r="K4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
@@ -1340,26 +1356,26 @@
         <f>COUNTIF(I11:I994,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="58">
         <f>G5-E5-B5-A5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="58">
         <f>COUNTIF(I$12:I$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60">
         <f>COUNTA(A11:A994)</f>
-        <v>4</v>
-      </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1412,10 +1428,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21"/>
-      <c r="B8" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
@@ -1428,22 +1444,22 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="119" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>24</v>
+      <c r="A9" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
@@ -1455,22 +1471,22 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="57" customHeight="1">
-      <c r="A10" s="62" t="s">
-        <v>25</v>
+      <c r="A10" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="36" t="s">
@@ -1483,21 +1499,21 @@
     </row>
     <row r="11" spans="1:15" ht="103.5" customHeight="1">
       <c r="A11" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="30" t="s">
@@ -1510,21 +1526,21 @@
     </row>
     <row r="12" spans="1:15" ht="75">
       <c r="A12" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36" t="s">
@@ -1537,21 +1553,21 @@
     </row>
     <row r="13" spans="1:15" ht="62.5">
       <c r="A13" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="30" t="s">
@@ -1562,23 +1578,23 @@
       </c>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:15" ht="50">
+    <row r="14" spans="1:15" ht="37.5">
       <c r="A14" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36" t="s">
@@ -1588,6 +1604,37 @@
         <v>44036</v>
       </c>
       <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" ht="50">
+      <c r="A16" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -1595,7 +1642,8 @@
       <dataRef name="Pass"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>

--- a/2.Test/TestCase.xlsx
+++ b/2.Test/TestCase.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
   <si>
     <t>TestCase</t>
   </si>
@@ -222,6 +222,322 @@
     <t>Bước 1: Mở trình duyệt truy cập vào link ""
 Bước 2: Đăng nhập vào tài khỏa của Admin
 Bước 3:Click vào button :"Quản lý người tài khoản"</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>Check sửa tài khoản quản lý thành công</t>
+  </si>
+  <si>
+    <t>C04.1</t>
+  </si>
+  <si>
+    <t>Check Tên tài khoản rỗng</t>
+  </si>
+  <si>
+    <t>C04.2</t>
+  </si>
+  <si>
+    <t>Check mật khẩu rỗng</t>
+  </si>
+  <si>
+    <t>C04.3</t>
+  </si>
+  <si>
+    <t>Check Họ tên người dùng rỗng</t>
+  </si>
+  <si>
+    <t>C04.4</t>
+  </si>
+  <si>
+    <t>Check Liên hệ rỗng</t>
+  </si>
+  <si>
+    <t>C04.5</t>
+  </si>
+  <si>
+    <t>Check Liên hệ phải là số</t>
+  </si>
+  <si>
+    <t>C04.6</t>
+  </si>
+  <si>
+    <t>Check Ngày Đăng ký rỗng</t>
+  </si>
+  <si>
+    <t>C04.7</t>
+  </si>
+  <si>
+    <t>Check Ngày Đăng ký phải là số và đúng định dạng ngày</t>
+  </si>
+  <si>
+    <t>C04.8</t>
+  </si>
+  <si>
+    <t>Check Tên tài khoản và Họ tên người dùng không được nhập ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>C04.9</t>
+  </si>
+  <si>
+    <t>Check Liên lạc phải ít nhất 10 số</t>
+  </si>
+  <si>
+    <t>C04.10</t>
+  </si>
+  <si>
+    <t>Check Tên tài khoản phải gồm 5 ký tự trở lên</t>
+  </si>
+  <si>
+    <t>C04.11</t>
+  </si>
+  <si>
+    <t>Check Tên tài khoản chỉ được nhập dưới 20 ký tự</t>
+  </si>
+  <si>
+    <t>C04.12</t>
+  </si>
+  <si>
+    <t>Check Họ tên người dùng phải gồm 5 ký tự trở lên</t>
+  </si>
+  <si>
+    <t>C04.13</t>
+  </si>
+  <si>
+    <t>Check Họ tên người dùng chỉ được nhập dưới 20 ký tự</t>
+  </si>
+  <si>
+    <t>C03.1</t>
+  </si>
+  <si>
+    <t>Check hiển thị đúng các thông tin ở các cột</t>
+  </si>
+  <si>
+    <t>C03.2</t>
+  </si>
+  <si>
+    <t>Check thông tin tron bảng không bị trùng nhau</t>
+  </si>
+  <si>
+    <t>C03.3</t>
+  </si>
+  <si>
+    <t>Check khi vào màn hình quản lý tự động hiển thị ra thông tin trong bảng</t>
+  </si>
+  <si>
+    <t>Hiển thị đầy đủ các thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng các cột</t>
+  </si>
+  <si>
+    <t>Các thông tin trong bản không bị trùng nhau</t>
+  </si>
+  <si>
+    <t>Khi click vào màn hình tự động hiển thị đầy đủ các thông tin</t>
+  </si>
+  <si>
+    <t>Check Function -Chức năng sửa tài khoản sử dụng bên quản lý</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trình duyệt truy cập vào link ""
+Bước 2: Đăng nhập vào tài khỏa của Admin
+Bước 3:Click vào button :'Sửa tài khoản'</t>
+  </si>
+  <si>
+    <t>Khi thay đôi rthoong tin cạp nhật hiển thị thành công</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển  thị thông báo:'Tên tài khoản không được để trống'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo :'Mật khẩu không được để trống'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo: 'Họ tên người dùng không được để trống'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo:'Liên hệ không được để trống'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo:'Liên hệ chỉ được nhập số'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo :'Ngày đăng ký không được để trống'</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo:'Ngày đăng ký không đúng định dạng mời bạn xem lại'</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo :Tên tài khoản và Hoj tên người dùng không được nhập ký hiệu đặc biệt'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo :'Liên hệ phải nhập ít nhất 10 số'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị :'Tên tài khoản phải từ 5 ký tự trở nên'</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo :"Tên tài khoản không được nhập quá 20 ký tự"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo:'Họ tên người dùng phải từ 5 ký tự trở lên"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo:'Họ tên ngươi dùng  không được nhập quá 20 ký tự"</t>
+  </si>
+  <si>
+    <t>Check function -Thêm mới tài khoản quản lý</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Check chính tả form quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>C05.1</t>
+  </si>
+  <si>
+    <t>Check Thêm mới tài khoản quản lý thành công</t>
+  </si>
+  <si>
+    <t>C05.2</t>
+  </si>
+  <si>
+    <t>Check UserName rỗng</t>
+  </si>
+  <si>
+    <t>C05.3</t>
+  </si>
+  <si>
+    <t>Check Name rỗng</t>
+  </si>
+  <si>
+    <t>C05.4</t>
+  </si>
+  <si>
+    <t>Check Email rỗng</t>
+  </si>
+  <si>
+    <t>C05.5</t>
+  </si>
+  <si>
+    <t>Check Date trống</t>
+  </si>
+  <si>
+    <t>C05.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check thiếu feild Mật Khẩu </t>
+  </si>
+  <si>
+    <t>C05.7</t>
+  </si>
+  <si>
+    <t>Check Email phải đúng định dạng</t>
+  </si>
+  <si>
+    <t>C05.8</t>
+  </si>
+  <si>
+    <t>Check Date phải là số và đúng định dạng ngày</t>
+  </si>
+  <si>
+    <t>C05.9</t>
+  </si>
+  <si>
+    <t>Check Mật khẩu phải được mã hóa</t>
+  </si>
+  <si>
+    <t>C05.10</t>
+  </si>
+  <si>
+    <t>Check UserName &amp; Name không được nhập ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>C05.11</t>
+  </si>
+  <si>
+    <t>Check Mật khẩu phải phải ít nhất 6 ký tự</t>
+  </si>
+  <si>
+    <t>C05.12</t>
+  </si>
+  <si>
+    <t>Check thiếu button : 'Hủy'</t>
+  </si>
+  <si>
+    <t>C05.13</t>
+  </si>
+  <si>
+    <t>Check Hủy thành công</t>
+  </si>
+  <si>
+    <t>C05.14</t>
+  </si>
+  <si>
+    <t>Check Thêm thành công và hiện thông tin sang bảng chi tiết</t>
+  </si>
+  <si>
+    <t>C05.15</t>
+  </si>
+  <si>
+    <t>Check mật khẩu chỉ được nhập nhiều nhất 20 ký tự</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trình duyệt truy cập vào link ""
+Bước 2: Đăng nhập vào tài khỏa của Admin
+Bước 3:Click vào button :'Thêm mới  tài khoản'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống không còn lỗi chính  tả </t>
+  </si>
+  <si>
+    <t>Khi điền đầy đủ tất cả các thông tin hệ thống sẽ thông báo:"Thêm tài khoản thành công"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống sẽ thông báo:"UserName không được để trống" </t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ thông báo:"Name không được bỏ trống"</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ thông báo :"Email không được để trống"</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ thông báo :"Date không được để trống"</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ thông báo :"Mật khẩu không được để trống"</t>
+  </si>
+  <si>
+    <t>Hệ thông sẽ thông báo :"Email không đúng định dạng"</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ thông báo:"Date không đúng định dạng "</t>
+  </si>
+  <si>
+    <t>Khi nhập Mật khẩu đã được mã hóa</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo:"UserName&amp;Name không được nhập ký tự đặc biệt"</t>
+  </si>
+  <si>
+    <t>Hệ thông sẽ thông báo :"Mật khẩu phải nhập ít nhất 6 ký tự"</t>
+  </si>
+  <si>
+    <t>Hệ thống đã có button "Hủy"</t>
+  </si>
+  <si>
+    <t>Khi click button:"Hủy" màn hình sẽ chuyển về màn hình chính</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo :"Thêm thành công" và chuyển sang màn hình chi tiết</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo :"Mật khẩu chỉ được nhập tối thiểu 20 ký tự"</t>
   </si>
 </sst>
 </file>
@@ -379,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -717,6 +1033,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -726,7 +1082,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -863,6 +1219,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -914,8 +1322,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1241,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1283,16 +1697,16 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="O2" s="41" t="s">
@@ -1303,16 +1717,16 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="O3" s="42" t="s">
@@ -1326,19 +1740,19 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="4"/>
       <c r="K4" s="8" t="s">
         <v>47</v>
@@ -1350,28 +1764,28 @@
     <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="9">
         <f>COUNTIF(I11:I994,"Pass")</f>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10">
         <f>COUNTIF(I11:I994,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="76">
         <f>G5-E5-B5-A5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58">
+        <v>0</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76">
         <f>COUNTIF(I$12:I$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60">
+      <c r="F5" s="77"/>
+      <c r="G5" s="78">
         <f>COUNTA(A11:A994)</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+        <v>38</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="O5" t="s">
@@ -1428,10 +1842,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
@@ -1606,35 +2020,768 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="1:15" ht="50">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="58" t="s">
         <v>52</v>
       </c>
+      <c r="G16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="51">
+        <v>44036</v>
+      </c>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" ht="50">
+      <c r="A17" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="51">
+        <v>44036</v>
+      </c>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="50">
+      <c r="A18" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="51">
+        <v>44036</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" ht="50">
+      <c r="A19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51">
+        <v>44036</v>
+      </c>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.5">
+      <c r="A21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="D21" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="37.5">
+      <c r="A22" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="37.5">
+      <c r="A23" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="37.5">
+      <c r="A24" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="37.5">
+      <c r="A25" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="37.5">
+      <c r="A26" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="37.5">
+      <c r="A27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="37.5">
+      <c r="A28" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="D28" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="50">
+      <c r="A29" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="D29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="37.5">
+      <c r="A30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="37.5">
+      <c r="A31" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="37.5">
+      <c r="A32" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="37.5">
+      <c r="A33" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="50">
+      <c r="A34" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="D34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+    </row>
+    <row r="36" spans="1:11" ht="37.5">
+      <c r="A36" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="50">
+      <c r="A37" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="37.5">
+      <c r="A38" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="37.5">
+      <c r="A39" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="37.5">
+      <c r="A40" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="37.5">
+      <c r="A41" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="37.5">
+      <c r="A42" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="37.5">
+      <c r="A43" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="37.5">
+      <c r="A44" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="37.5">
+      <c r="A45" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="43.5">
+      <c r="A46" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="D46" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="37.5">
+      <c r="A47" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="37.5">
+      <c r="A48" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="37.5">
+      <c r="A49" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.5">
+      <c r="A50" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="D50" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="37.5">
+      <c r="A51" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="31">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="D52" s="33"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="52"/>
+      <c r="J53" s="31"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -1655,7 +2802,7 @@
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7 I10:I14 H9:I9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7 I10:I14 H9:I9 I16:I19 I21:I34 I36:I53">
       <formula1>$O$2:$O$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
